--- a/src/test/java/resources/MSD_TestData.xlsx
+++ b/src/test/java/resources/MSD_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpanchal\IdeaProjects\FusionInternalProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E497F-56A1-4AC7-AFB5-C4E44AB3749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC144B-EE08-455D-A4BC-8E34E1A97F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFB41541-69CB-4A6D-BB8E-FE5ADF235096}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/resources/MSD_TestData.xlsx
+++ b/src/test/java/resources/MSD_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpanchal\IdeaProjects\FusionInternalProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC144B-EE08-455D-A4BC-8E34E1A97F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5485B4-3E55-4BCB-931F-CD7B2E99DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFB41541-69CB-4A6D-BB8E-FE5ADF235096}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
